--- a/StrainMenu Creator/bin/Release/Template_36.xlsx
+++ b/StrainMenu Creator/bin/Release/Template_36.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\source\repos\StrainMenu Creator\StrainMenu Creator\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DADDA9A-230D-40AA-9DA6-E40139C67E81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B228EA9B-9FA5-4489-BB8B-87A87AABD255}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{BBEC57AF-E876-4348-A0BF-72133E8375A3}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
-  <si>
-    <t>FX420</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Strain:</t>
   </si>
@@ -59,6 +56,9 @@
   <si>
     <t>Orange  --  CBD Heavy Hybrid</t>
   </si>
+  <si>
+    <t>Bulk Grams</t>
+  </si>
 </sst>
 </file>
 
@@ -98,12 +98,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="72"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
@@ -236,6 +230,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -333,26 +332,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -361,90 +365,96 @@
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -453,95 +463,86 @@
     <xf numFmtId="10" fontId="11" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -570,61 +571,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>129109</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1071958</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123657</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C104B72-03EE-455A-AD10-13CE1278FD7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7672909" y="0"/>
-          <a:ext cx="3590799" cy="1800057"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -926,13 +872,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDE5258-D422-4EA7-88CA-705A4F6337F1}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I21" sqref="I4:I21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="54.140625" customWidth="1"/>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
@@ -941,7 +887,7 @@
     <col min="8" max="8" width="54.140625" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
     <col min="10" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="116.25" customHeight="1" x14ac:dyDescent="1.35">
@@ -949,10 +895,10 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
+      <c r="E1" s="82" t="s">
+        <v>10</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -984,31 +930,31 @@
     </row>
     <row r="3" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="69" t="s">
-        <v>2</v>
+      <c r="D3" s="69" t="s">
+        <v>3</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="E3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="69" t="s">
-        <v>5</v>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="67" t="s">
+        <v>0</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="68" t="s">
+      <c r="I3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="69" t="s">
-        <v>2</v>
+      <c r="J3" s="69" t="s">
+        <v>3</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="K3" s="68" t="s">
         <v>4</v>
-      </c>
-      <c r="K3" s="69" t="s">
-        <v>5</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="1"/>
@@ -1017,16 +963,16 @@
     </row>
     <row r="4" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A4" s="2"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="3"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1034,16 +980,16 @@
     </row>
     <row r="5" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="3"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1051,16 +997,16 @@
     </row>
     <row r="6" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A6" s="2"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
       <c r="L6" s="3"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1068,16 +1014,16 @@
     </row>
     <row r="7" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A7" s="2"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="32"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="31"/>
       <c r="L7" s="3"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1085,16 +1031,16 @@
     </row>
     <row r="8" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A8" s="2"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="3"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1102,16 +1048,16 @@
     </row>
     <row r="9" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A9" s="2"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="32"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="3"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1119,16 +1065,16 @@
     </row>
     <row r="10" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A10" s="2"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1136,16 +1082,16 @@
     </row>
     <row r="11" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A11" s="2"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="31"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1153,16 +1099,16 @@
     </row>
     <row r="12" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A12" s="2"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1170,16 +1116,16 @@
     </row>
     <row r="13" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A13" s="2"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="31"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1187,16 +1133,16 @@
     </row>
     <row r="14" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A14" s="2"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1204,16 +1150,16 @@
     </row>
     <row r="15" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A15" s="2"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="31"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1221,16 +1167,16 @@
     </row>
     <row r="16" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A16" s="2"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1238,16 +1184,16 @@
     </row>
     <row r="17" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A17" s="2"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="31"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1255,16 +1201,16 @@
     </row>
     <row r="18" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1272,16 +1218,16 @@
     </row>
     <row r="19" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A19" s="2"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1289,16 +1235,16 @@
     </row>
     <row r="20" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A20" s="2"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1306,16 +1252,16 @@
     </row>
     <row r="21" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A21" s="3"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="66"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1327,8 +1273,8 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1340,17 +1286,15 @@
     </row>
     <row r="23" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A23" s="3"/>
-      <c r="B23" s="72" t="s">
-        <v>6</v>
+      <c r="B23" s="71" t="s">
+        <v>5</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="72" t="s">
-        <v>6</v>
-      </c>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="71"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1361,20 +1305,18 @@
     </row>
     <row r="24" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A24" s="3"/>
-      <c r="B24" s="74" t="s">
-        <v>7</v>
+      <c r="B24" s="73" t="s">
+        <v>6</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1382,17 +1324,15 @@
     </row>
     <row r="25" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A25" s="3"/>
-      <c r="B25" s="75" t="s">
-        <v>8</v>
+      <c r="B25" s="74" t="s">
+        <v>7</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="75" t="s">
-        <v>8</v>
-      </c>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="74"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1403,17 +1343,15 @@
     </row>
     <row r="26" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A26" s="3"/>
-      <c r="B26" s="76" t="s">
-        <v>10</v>
+      <c r="B26" s="75" t="s">
+        <v>9</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="77" t="s">
-        <v>10</v>
-      </c>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1424,15 +1362,15 @@
     </row>
     <row r="27" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A27" s="3"/>
-      <c r="B27" s="73" t="s">
-        <v>9</v>
+      <c r="B27" s="72" t="s">
+        <v>8</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1449,7 +1387,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1466,7 +1404,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1482,7 +1420,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1498,7 +1436,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1512,21 +1450,21 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1538,6 +1476,5 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>